--- a/النصوص المستخرجة.xlsx
+++ b/النصوص المستخرجة.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
       <charset val="134"/>
@@ -32,13 +32,6 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -46,15 +39,17 @@
     </font>
     <font>
       <name val="Arial"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
     </font>
+    <font/>
   </fonts>
   <fills count="6">
     <fill>
@@ -65,14 +60,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB7E1CD"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFF8327"/>
+        <bgColor rgb="FFFF8327"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8327"/>
-        <bgColor rgb="FFFF8327"/>
+        <fgColor rgb="FFD112D1"/>
+        <bgColor rgb="FFD112D1"/>
       </patternFill>
     </fill>
     <fill>
@@ -88,27 +83,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -118,27 +98,23 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,68 +454,59 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col width="44.69921875" customWidth="1" min="1" max="1"/>
-    <col width="44.3984375" customWidth="1" min="2" max="2"/>
-    <col width="46" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="44.75" customWidth="1" min="1" max="1"/>
+    <col width="12.125" customWidth="1" min="2" max="2"/>
+    <col width="28.875" customWidth="1" min="3" max="3"/>
+    <col width="8.875" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" thickBot="1">
+    <row r="1" ht="14.45" customHeight="1" thickBot="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>النص الأصلي</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" thickBot="1">
-      <c r="A2" s="7" t="inlineStr">
+    <row r="2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>test.txt</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>إن أردت مسح النصوص لتضع أخرى فتأكد من مسح التنسيقات الخاصة بالنصوص القديمة.</t>
+          <t>لا تفتح هذا الملف أثناء تشغيل الأداة.</t>
         </is>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>there</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>إن وضعت نصاً في خانة النص الأصلي وتركت الخلية المجاورة فارغة فسيتم حذف النص في اللعبة.</t>
-        </is>
-      </c>
     </row>
-    <row r="4" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>you talking</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>وإن فعلت العكس فسيتجاهله البرنامج.</t>
-        </is>
-      </c>
     </row>
-    <row r="5" ht="14.4" customHeight="1" thickBot="1"/>
-    <row r="6" ht="14.4" customHeight="1" thickBot="1"/>
-    <row r="7" ht="14.4" customHeight="1" thickBot="1"/>
-    <row r="8" ht="14.4" customHeight="1" thickBot="1"/>
-    <row r="9" ht="14.4" customHeight="1" thickBot="1"/>
-    <row r="10" ht="14.4" customHeight="1" thickBot="1"/>
+    <row r="5" ht="14.45" customHeight="1" thickBot="1"/>
+    <row r="6" ht="14.45" customHeight="1" thickBot="1"/>
+    <row r="7" ht="14.45" customHeight="1" thickBot="1"/>
+    <row r="8" ht="14.45" customHeight="1" thickBot="1"/>
+    <row r="9" ht="14.45" customHeight="1" thickBot="1"/>
+    <row r="10" ht="14.45" customHeight="1" thickBot="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
